--- a/src/files/xlsx/Monitoramento.xlsx
+++ b/src/files/xlsx/Monitoramento.xlsx
@@ -25,49 +25,49 @@
     <x:t>TOTAL DE CONFIRMADOS</x:t>
   </x:si>
   <x:si>
-    <x:t>126.844</x:t>
+    <x:t>133.245</x:t>
   </x:si>
   <x:si>
     <x:t>. CONFIRMADOS LABORATORIALMENTE.</x:t>
   </x:si>
   <x:si>
-    <x:t>73.972</x:t>
+    <x:t>76.122</x:t>
   </x:si>
   <x:si>
     <x:t>CONFIRMADOS CLÍNICO EPIDEMIOLÓGICO</x:t>
   </x:si>
   <x:si>
-    <x:t>1.709</x:t>
+    <x:t>1.759</x:t>
   </x:si>
   <x:si>
     <x:t>--- CONFIRMADOS TESTE RÁPIDO---</x:t>
   </x:si>
   <x:si>
-    <x:t>48.990</x:t>
+    <x:t>51.543</x:t>
   </x:si>
   <x:si>
     <x:t>AGUARDANDO VALIDAÇÃO DO MUNICÍPIO</x:t>
   </x:si>
   <x:si>
-    <x:t>2.173</x:t>
+    <x:t>3.821</x:t>
   </x:si>
   <x:si>
     <x:t>TOTAL DE ATIVOS</x:t>
   </x:si>
   <x:si>
-    <x:t>11.704</x:t>
+    <x:t>14.011</x:t>
   </x:si>
   <x:si>
     <x:t>TOTAL DE ÓBITOS</x:t>
   </x:si>
   <x:si>
-    <x:t>2.936</x:t>
+    <x:t>2.988</x:t>
   </x:si>
   <x:si>
     <x:t>TOTAL DE CURADOS</x:t>
   </x:si>
   <x:si>
-    <x:t>112.204</x:t>
+    <x:t>116.246</x:t>
   </x:si>
   <x:si>
     <x:t>OCUPAÇÃO DE LEITOS</x:t>
@@ -79,19 +79,19 @@
     <x:t>TOTAL</x:t>
   </x:si>
   <x:si>
-    <x:t>1.449</x:t>
+    <x:t>1.489</x:t>
   </x:si>
   <x:si>
     <x:t>OCUPADOS</x:t>
   </x:si>
   <x:si>
-    <x:t>811</x:t>
+    <x:t>845</x:t>
   </x:si>
   <x:si>
     <x:t>TAXA DE OCUPAÇÃO</x:t>
   </x:si>
   <x:si>
-    <x:t>56%</x:t>
+    <x:t>57%</x:t>
   </x:si>
   <x:si>
     <x:t>ENFERMARIA PEDIÁTRICA</x:t>
@@ -100,22 +100,22 @@
     <x:t>59</x:t>
   </x:si>
   <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59%</x:t>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46%</x:t>
   </x:si>
   <x:si>
     <x:t>UTI ADULTO</x:t>
   </x:si>
   <x:si>
-    <x:t>1.053</x:t>
-  </x:si>
-  <x:si>
-    <x:t>750</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71%</x:t>
+    <x:t>1.071</x:t>
+  </x:si>
+  <x:si>
+    <x:t>778</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73%</x:t>
   </x:si>
   <x:si>
     <x:t>UTI PEDIÁTRICA</x:t>
@@ -124,10 +124,10 @@
     <x:t>41</x:t>
   </x:si>
   <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51%</x:t>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61%</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/src/files/xlsx/Monitoramento.xlsx
+++ b/src/files/xlsx/Monitoramento.xlsx
@@ -85,13 +85,13 @@
     <x:t>OCUPADOS</x:t>
   </x:si>
   <x:si>
-    <x:t>845</x:t>
+    <x:t>835</x:t>
   </x:si>
   <x:si>
     <x:t>TAXA DE OCUPAÇÃO</x:t>
   </x:si>
   <x:si>
-    <x:t>57%</x:t>
+    <x:t>56%</x:t>
   </x:si>
   <x:si>
     <x:t>ENFERMARIA PEDIÁTRICA</x:t>

--- a/src/files/xlsx/Monitoramento.xlsx
+++ b/src/files/xlsx/Monitoramento.xlsx
@@ -14,111 +14,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38" count="38">
-  <x:si>
-    <x:t>title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>val</x:t>
-  </x:si>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22" count="22">
   <x:si>
     <x:t>TOTAL DE CONFIRMADOS</x:t>
   </x:si>
   <x:si>
+    <x:t>CONFIRMADOS LABORATORIALMENTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONFIRMADOS CLÍNICO EPIDEMIOLÓGICO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>--- CONFIRMADOS TESTE RÁPIDO---</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AGUARDANDO VALIDAÇÃO DO MUNICÍPIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TOTAL DE ATIVOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TOTAL DE ÓBITOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TOTAL DE CURADOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TOTAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OCUPADOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TAXA DE OCUPAÇÃO</x:t>
+  </x:si>
+  <x:si>
     <x:t>133.245</x:t>
   </x:si>
   <x:si>
-    <x:t>. CONFIRMADOS LABORATORIALMENTE.</x:t>
-  </x:si>
-  <x:si>
     <x:t>76.122</x:t>
   </x:si>
   <x:si>
-    <x:t>CONFIRMADOS CLÍNICO EPIDEMIOLÓGICO</x:t>
-  </x:si>
-  <x:si>
     <x:t>1.759</x:t>
   </x:si>
   <x:si>
-    <x:t>--- CONFIRMADOS TESTE RÁPIDO---</x:t>
-  </x:si>
-  <x:si>
     <x:t>51.543</x:t>
   </x:si>
   <x:si>
-    <x:t>AGUARDANDO VALIDAÇÃO DO MUNICÍPIO</x:t>
-  </x:si>
-  <x:si>
     <x:t>3.821</x:t>
   </x:si>
   <x:si>
-    <x:t>TOTAL DE ATIVOS</x:t>
-  </x:si>
-  <x:si>
     <x:t>14.011</x:t>
   </x:si>
   <x:si>
-    <x:t>TOTAL DE ÓBITOS</x:t>
-  </x:si>
-  <x:si>
     <x:t>2.988</x:t>
   </x:si>
   <x:si>
-    <x:t>TOTAL DE CURADOS</x:t>
-  </x:si>
-  <x:si>
     <x:t>116.246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OCUPAÇÃO DE LEITOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENFERMARIA ADULTO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TOTAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.489</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OCUPADOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>835</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TAXA DE OCUPAÇÃO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENFERMARIA PEDIÁTRICA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UTI ADULTO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.071</x:t>
-  </x:si>
-  <x:si>
-    <x:t>778</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UTI PEDIÁTRICA</x:t>
   </x:si>
   <x:si>
     <x:t>41</x:t>
@@ -490,197 +442,74 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:11">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:2">
+    <x:row r="2" spans="1:11">
       <x:c r="A2" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="A3" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" s="0" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="E2" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9" s="0" t="s">
+      <x:c r="F2" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="G2" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
-      <x:c r="A10" s="0" t="s">
+      <x:c r="H2" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
-      <x:c r="A11" s="0" t="s">
+      <x:c r="I2" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2">
-      <x:c r="A12" s="0" t="s">
+      <x:c r="J2" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="K2" s="0" t="s">
         <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2">
-      <x:c r="A13" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:2">
-      <x:c r="A14" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:2">
-      <x:c r="A15" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:2">
-      <x:c r="A16" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:2">
-      <x:c r="A17" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:2">
-      <x:c r="A18" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:2">
-      <x:c r="A19" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:2">
-      <x:c r="A20" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B20" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:2">
-      <x:c r="A21" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B21" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:2">
-      <x:c r="A22" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:2">
-      <x:c r="A23" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:2">
-      <x:c r="A24" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B24" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:2">
-      <x:c r="A25" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B25" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:2">
-      <x:c r="A26" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B26" s="0" t="s">
-        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
